--- a/public/score-file/2019-03.xlsx
+++ b/public/score-file/2019-03.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="date" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="指标一" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="指标二" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="指标三" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="指标四" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="指标五" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="20">
   <si>
     <t>姓名</t>
   </si>
@@ -22,6 +26,45 @@
     <t>服务一线，服务前端，态度和蔼，言行举止文明礼貌</t>
   </si>
   <si>
+    <t>崔柔</t>
+  </si>
+  <si>
+    <t>渠道部</t>
+  </si>
+  <si>
+    <t>陈飞</t>
+  </si>
+  <si>
+    <t>车建波</t>
+  </si>
+  <si>
+    <t>运行维护部</t>
+  </si>
+  <si>
+    <t>宋向兵</t>
+  </si>
+  <si>
+    <t>师亚楠</t>
+  </si>
+  <si>
+    <t>刘亮亮</t>
+  </si>
+  <si>
+    <t>政企客户部</t>
+  </si>
+  <si>
+    <t>巩希婷</t>
+  </si>
+  <si>
+    <t>客户服务部</t>
+  </si>
+  <si>
+    <t>张婵</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
     <t>听取一线意见，处理一线提出的问题，为基层排忧解难</t>
   </si>
   <si>
@@ -32,48 +75,6 @@
   </si>
   <si>
     <t>合理安排全市资源，沟通分享先进经验及成功案例，总结推广</t>
-  </si>
-  <si>
-    <t>统计时间</t>
-  </si>
-  <si>
-    <t>崔柔</t>
-  </si>
-  <si>
-    <t>渠道部</t>
-  </si>
-  <si>
-    <t>陈飞</t>
-  </si>
-  <si>
-    <t>车建波</t>
-  </si>
-  <si>
-    <t>运行维护部</t>
-  </si>
-  <si>
-    <t>宋向兵</t>
-  </si>
-  <si>
-    <t>师亚楠</t>
-  </si>
-  <si>
-    <t>刘亮亮</t>
-  </si>
-  <si>
-    <t>政企客户部</t>
-  </si>
-  <si>
-    <t>巩希婷</t>
-  </si>
-  <si>
-    <t>客户服务部</t>
-  </si>
-  <si>
-    <t>张婵</t>
-  </si>
-  <si>
-    <t>人力资源部</t>
   </si>
 </sst>
 </file>
@@ -109,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:C14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,358 +464,808 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43550.36545603009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43550.36545603009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43550.36619638889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43550.36619638889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43550.366806921294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>43550.366806921294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43550.366806921294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>43550.366806921294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43550.397256944445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43550.40168981481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>43550.401874999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>43550.40219907407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
       <c r="C14">
         <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43550.40451388889</v>
       </c>
     </row>
   </sheetData>
